--- a/VEG_fam_counts_2023.xlsx
+++ b/VEG_fam_counts_2023.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alissaiverson/.ssh/HLC_soil_and_veg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\Documents\GitHub\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34720FB5-AA5B-9F42-953F-90DB86EFFAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9F426-5EB8-4356-A0F2-79E0EB5E9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$58</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="89">
   <si>
     <t>Family</t>
   </si>
@@ -382,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,20 +425,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,18 +792,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A39" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
@@ -798,7 +814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -815,7 +831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -835,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -855,14 +871,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -878,10 +894,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
@@ -889,10 +905,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
@@ -900,10 +916,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
@@ -911,10 +927,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
@@ -922,10 +938,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
@@ -933,10 +949,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
@@ -944,10 +960,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
@@ -955,10 +971,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
@@ -966,10 +982,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
@@ -977,10 +993,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
@@ -988,10 +1004,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>6</v>
       </c>
@@ -1027,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>7</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>9</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>10</v>
       </c>
@@ -1083,14 +1099,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>3</v>
       </c>
       <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1100,10 +1116,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
@@ -1111,10 +1127,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="9" t="s">
         <v>35</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>12</v>
       </c>
@@ -1136,14 +1152,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>3</v>
       </c>
       <c r="B27" s="3">
         <v>13</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1153,10 +1169,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="16"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
@@ -1164,10 +1180,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
@@ -1175,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>14</v>
       </c>
@@ -1189,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>15</v>
       </c>
@@ -1203,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>16</v>
       </c>
@@ -1217,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>17</v>
       </c>
@@ -1231,14 +1247,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>10</v>
       </c>
       <c r="B34" s="3">
         <v>18</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1248,10 +1264,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8" t="s">
         <v>52</v>
       </c>
@@ -1259,10 +1275,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="16"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="8" t="s">
         <v>53</v>
       </c>
@@ -1270,10 +1286,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="8" t="s">
         <v>54</v>
       </c>
@@ -1281,10 +1297,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8" t="s">
         <v>55</v>
       </c>
@@ -1292,10 +1308,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="8" t="s">
         <v>56</v>
       </c>
@@ -1303,10 +1319,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="16"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="8" t="s">
         <v>57</v>
       </c>
@@ -1314,10 +1330,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="16"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="8" t="s">
         <v>58</v>
       </c>
@@ -1325,10 +1341,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8" t="s">
         <v>59</v>
       </c>
@@ -1336,10 +1352,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="9" t="s">
         <v>60</v>
       </c>
@@ -1347,14 +1363,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>2</v>
       </c>
       <c r="B44" s="3">
         <v>19</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -1364,10 +1380,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="9" t="s">
         <v>63</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>20</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>21</v>
       </c>
@@ -1403,14 +1419,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
         <v>3</v>
       </c>
       <c r="B48" s="3">
         <v>22</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -1420,10 +1436,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="16"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8" t="s">
         <v>70</v>
       </c>
@@ -1431,10 +1447,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="9" t="s">
         <v>71</v>
       </c>
@@ -1442,14 +1458,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
         <v>2</v>
       </c>
       <c r="B51" s="2">
         <v>23</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -1459,10 +1475,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="9" t="s">
         <v>74</v>
       </c>
@@ -1470,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>24</v>
       </c>
@@ -1484,14 +1500,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
         <v>2</v>
       </c>
       <c r="B54" s="2">
         <v>25</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -1501,10 +1517,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="17"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="9" t="s">
         <v>79</v>
       </c>
@@ -1512,14 +1528,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
         <v>2</v>
       </c>
       <c r="B56" s="2">
         <v>26</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -1529,10 +1545,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="17"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="9" t="s">
         <v>82</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>27</v>
       </c>
@@ -1556,11 +1572,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="C5:C16"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C27:C29"/>
@@ -1574,7 +1585,674 @@
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="C5:C16"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D367CF-18B4-4659-B6F2-33D92F58661B}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C58" xr:uid="{17D367CF-18B4-4659-B6F2-33D92F58661B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C58">
+      <sortCondition ref="B1:B58"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>